--- a/biology/Botanique/Gagea_lutea/Gagea_lutea.xlsx
+++ b/biology/Botanique/Gagea_lutea/Gagea_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gagea lutea
 La Gagée jaune (Gagea lutea), également appelée Ornithogale jaune, est une petite plante à bulbe du genre des gagées et de la famille des Liliacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gagée jaune produit des fleurs jaunes à six tépales libres formant une étoile. Les feuilles sont à nervures parallèles.
 </t>
@@ -543,9 +557,11 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inscrite dans la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe 1 (espèces strictement protégées)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inscrite dans la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain en Annexe 1 (espèces strictement protégées).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bois clairs et frais, lisières, pâturages dans des régions collinéennes à montagneuses jusqu'à 1 500 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -636,9 +656,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009) Les feuilles (uniquement jeunes) et le bulbe de G. lutea semblent avoir autrefois été consommés dans presque toute l'Europee et dans le nord-est de l'Asie[2]. Devenue rares et protégées sur une partie de son aire de répartition, leur consommation est interdite ou non recommandée ailleurs.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009) Les feuilles (uniquement jeunes) et le bulbe de G. lutea semblent avoir autrefois été consommés dans presque toute l'Europee et dans le nord-est de l'Asie. Devenue rares et protégées sur une partie de son aire de répartition, leur consommation est interdite ou non recommandée ailleurs.
 </t>
         </is>
       </c>
